--- a/branches/windows-scripts/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/windows-scripts/ValueSet-AgeRangesTXCURR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T07:15:55+00:00</t>
+    <t>2023-06-26T18:10:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>5-9 year</t>
+  </si>
+  <si>
+    <t>P10Y--P15Y</t>
+  </si>
+  <si>
+    <t>10-15 year</t>
   </si>
   <si>
     <t>P15Y--P20Y</t>
@@ -461,7 +467,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -596,15 +602,23 @@
         <v>55</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>57</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
